--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -524,7 +524,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +609,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -524,7 +524,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,8 +640,8 @@
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="10">
-        <v>0</v>
+      <c r="C16" s="9">
+        <v>20</v>
       </c>
       <c r="E16" s="14"/>
     </row>
@@ -658,7 +658,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -524,7 +524,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -609,15 +609,15 @@
         <v>9</v>
       </c>
       <c r="C12" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10">
-        <v>1</v>
+      <c r="C13" s="9">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -524,7 +524,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,8 +584,8 @@
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10">
-        <v>5</v>
+      <c r="C9" s="9">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -616,8 +616,8 @@
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9">
-        <v>40</v>
+      <c r="C13" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -632,8 +632,8 @@
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10">
-        <v>5</v>
+      <c r="C15" s="9">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -524,7 +524,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="12">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Conteúdo</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Controle de sessao php</t>
-  </si>
-  <si>
-    <t>sistema seguir</t>
   </si>
   <si>
     <t>sobre nos</t>
@@ -202,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -220,6 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +522,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,16 +574,16 @@
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
-        <v>50</v>
+      <c r="C8" s="8">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
-        <v>50</v>
+      <c r="C9" s="8">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -597,24 +595,20 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="7">
         <v>100</v>
@@ -622,7 +616,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="8">
         <v>78</v>
@@ -630,15 +624,15 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="9">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="C15" s="8">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9">
         <v>20</v>
@@ -655,10 +649,10 @@
     </row>
     <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="12">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
